--- a/result/table/tilapia/Table 1.xlsx
+++ b/result/table/tilapia/Table 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljt89\nutrition_group Dropbox\projects\yanxian\Kizito_tilapia-perch-microbiota_2021\result\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljt89\nutrition_group Dropbox\projects\yanxian\Kizito\Kizito_tilapia-perch-microbiota_2021\result\table\tilapia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD93258-458E-41BF-BD31-A73F75059EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428D4E9-1C71-4775-A442-E014F2E5CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,13 +206,7 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,19 +230,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,9 +251,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +550,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,222 +562,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>13.66</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>7</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>7.84</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>15</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="13">
         <v>14.26</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>2E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>3.47</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>17</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>2.62</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>15</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>8.49</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <v>2E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>1.19</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>0.247</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>17</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -790,8 +788,7 @@
       <c r="F15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="6">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
